--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3694216.068849801</v>
+        <v>3687199.05395809</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>234.7473530730056</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>352.5878279404843</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.17512620685336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>38.35377012418417</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>9.702759483543995</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>207.0351854764312</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>242.5352016361518</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>40.53151821125476</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.63926978364023</v>
+        <v>59.72683757586832</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>156.5683910710464</v>
       </c>
       <c r="V13" t="n">
-        <v>111.0271288972772</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>58.47659984128737</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710082</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>12.65952049893335</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>124.3723876437015</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>135.8762287682456</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>120.9046341820258</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>166.6273369527608</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>56.81029555705232</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,13 +3271,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>122.65197883716</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>130.8010887760736</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>164.0301462522383</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0363540493568</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>190.7955476484028</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>161.3012794317887</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1129.234822142136</v>
+        <v>1822.041796525165</v>
       </c>
       <c r="C2" t="n">
-        <v>760.2723052017247</v>
+        <v>1453.079279584754</v>
       </c>
       <c r="D2" t="n">
-        <v>402.0066065949742</v>
+        <v>1094.813580978003</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>709.025328379759</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>1871.983983358263</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X2" t="n">
-        <v>1871.983983358263</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y2" t="n">
-        <v>1515.834662206258</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>257.1154545468206</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="V4" t="n">
-        <v>257.1154545468206</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="W4" t="n">
-        <v>257.1154545468206</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="X4" t="n">
-        <v>257.1154545468206</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>1272.344242153657</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>903.3817252132458</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>903.3817252132458</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>517.5934726150015</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>106.6075678253939</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>92.68416376398481</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2687.348323863127</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2687.348323863127</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2687.348323863127</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2687.348323863127</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2356.285436519557</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W5" t="n">
-        <v>2356.285436519557</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.819678258477</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y5" t="n">
-        <v>1592.680346282665</v>
+        <v>1272.344242153657</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>108.9687959810045</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9687959810045</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="W7" t="n">
-        <v>108.9687959810045</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>370.8558756644251</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>1074.547708327362</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>705.5851913869503</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>460.6001392292212</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>74.811886630977</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791251</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2656.208163532106</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2656.208163532106</v>
+        <v>2478.514423990284</v>
       </c>
       <c r="U8" t="n">
-        <v>2402.446378170197</v>
+        <v>2224.752638628375</v>
       </c>
       <c r="V8" t="n">
-        <v>2071.383490826626</v>
+        <v>2224.752638628375</v>
       </c>
       <c r="W8" t="n">
-        <v>1718.614835556512</v>
+        <v>2224.752638628375</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.614835556512</v>
+        <v>1851.286880367295</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.4755035807</v>
+        <v>1461.147548391484</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614628</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2118.558310635829</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="C10" t="n">
-        <v>2118.558310635829</v>
+        <v>559.1928012785272</v>
       </c>
       <c r="D10" t="n">
-        <v>2118.558310635829</v>
+        <v>409.0761618661915</v>
       </c>
       <c r="E10" t="n">
-        <v>2118.558310635829</v>
+        <v>261.1630682837983</v>
       </c>
       <c r="F10" t="n">
-        <v>2118.558310635829</v>
+        <v>114.273120785888</v>
       </c>
       <c r="G10" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>2351.737007977608</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>2498.624145662037</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>2618.281896171277</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>2697.149091018221</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>2697.149091018221</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>2697.149091018221</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>2697.149091018221</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>2697.149091018221</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>2407.97548067279</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>2407.97548067279</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>2118.558310635829</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>2118.558310635829</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>2118.558310635829</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5029,19 +5029,19 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514088</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5062,7 +5062,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>167.8887746690264</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>316.9584588710865</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775507</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.27469227828</v>
+        <v>1661.954360834045</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>673.9335914287639</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>673.9335914287639</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>523.8169520164281</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164281</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1340.766380587149</v>
       </c>
       <c r="V13" t="n">
-        <v>673.9335914287639</v>
+        <v>1086.081892381262</v>
       </c>
       <c r="W13" t="n">
-        <v>673.9335914287639</v>
+        <v>796.6647223443018</v>
       </c>
       <c r="X13" t="n">
-        <v>673.9335914287639</v>
+        <v>796.6647223443018</v>
       </c>
       <c r="Y13" t="n">
-        <v>673.9335914287639</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5296,13 +5296,13 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>378.1030765138943</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>624.8682044203583</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>932.1883377003199</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1439.848997990945</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1239.928987906498</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1239.928987906498</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>950.8003491200559</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>696.115860914169</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W16" t="n">
-        <v>696.115860914169</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X16" t="n">
-        <v>468.1263100161517</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,19 +5530,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1151.268357465867</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>896.5838692599799</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>896.5838692599799</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028604</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>372.9624052601988</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>844.0280401273991</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>554.6108700904385</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>554.6108700904385</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>554.6108700904385</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,28 +5974,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>638.3691419079765</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>514.936581693766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>346.0003987658591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>346.0003987658591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>346.0003987658591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>346.0003987658591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>346.0003987658591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>986.0022165609664</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>696.5850465240057</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>696.5850465240057</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>696.5850465240057</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,25 +6226,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.8045051785809</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1265.71527400657</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>976.5866352201284</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V28" t="n">
-        <v>976.5866352201284</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W28" t="n">
-        <v>976.5866352201284</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>748.5970843221111</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>527.8045051785809</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,7 +6448,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
         <v>904.3190116155888</v>
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L30" t="n">
-        <v>3138.955990222747</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>3484.747546292012</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>4289.159124556162</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4037.655901217364</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3868.719718289457</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3718.603078877121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4581.469028209693</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4581.469028209693</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4292.340389423251</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>4037.655901217364</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4037.655901217364</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4037.655901217364</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4037.655901217364</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2413.343925613455</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4035.871893885154</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>4035.871893885154</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3885.755254472819</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3885.755254472819</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>4093.25603081147</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>4035.871893885154</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4035.871893885154</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>4035.871893885154</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,58 +6931,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>816.7950850315615</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1124.115218311523</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.977845975556</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4015.609665787368</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4015.609665787368</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3865.493026375033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3717.579932792639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929846</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.149147719352</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U37" t="n">
-        <v>4437.149147719352</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V37" t="n">
-        <v>4305.026835824328</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W37" t="n">
-        <v>4015.609665787368</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X37" t="n">
-        <v>4015.609665787368</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>4015.609665787368</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7165,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507006</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>909.5238288465581</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>909.5238288465581</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>909.5238288465581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>688.731249703028</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>816.7950850315615</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4005.757801248824</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3836.821618320917</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3718.603078877122</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4549.859459491671</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>4295.174971285785</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>4005.757801248824</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>4005.757801248824</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>4005.757801248824</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3926.121309839311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3757.185126911404</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3607.068487499069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4571.72593422785</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>4317.041446021964</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>4317.041446021964</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4089.051895123946</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>4089.051895123946</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270198</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627893</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29.47535963978068</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>199.6230805871087</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>91.23759968302122</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>29.47535963978191</v>
       </c>
       <c r="M21" t="n">
-        <v>349.765300333857</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>159.0121003135241</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>52.4973336130526</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>38.86002301949844</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.6026921294541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>20.63789864135492</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10904,13 +10904,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305235</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>43.6598726146251</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>285.1031356539335</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>32.92248665775651</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>129.6689613275309</v>
       </c>
       <c r="V13" t="n">
-        <v>141.1105144265508</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.48775256250541</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>273.577831899644</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>42.87443345492638</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>13.03759959929056</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>100.6429268763634</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>31.29347303084248</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>229.7127027795387</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>75.26883114644322</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>121.3365545477544</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>88.10749707158971</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>31.57911896885558</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>61.34209567542524</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18.53070075014858</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679007.2774849684</v>
+        <v>679007.2774849685</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679007.2774849687</v>
+        <v>679007.2774849685</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679007.2774849684</v>
+        <v>679007.2774849685</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778546</v>
@@ -26322,40 +26322,40 @@
         <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.307527876</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.307527876</v>
       </c>
       <c r="H2" t="n">
         <v>703852.3075278759</v>
       </c>
       <c r="I2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="J2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="K2" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278763</v>
       </c>
       <c r="L2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="M2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="M2" t="n">
-        <v>703852.3075278761</v>
-      </c>
       <c r="N2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="O2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="O2" t="n">
-        <v>703852.3075278761</v>
-      </c>
       <c r="P2" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.307527876</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768968</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26447,7 +26447,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
@@ -26478,25 +26478,25 @@
         <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90664.3226513218</v>
+        <v>-90664.32265132168</v>
       </c>
       <c r="C6" t="n">
         <v>499303.5565632225</v>
       </c>
       <c r="D6" t="n">
-        <v>499303.5565632229</v>
+        <v>499303.5565632227</v>
       </c>
       <c r="E6" t="n">
-        <v>71659.27548082388</v>
+        <v>70684.68422110142</v>
       </c>
       <c r="F6" t="n">
-        <v>596819.3119577204</v>
+        <v>595844.7206979989</v>
       </c>
       <c r="G6" t="n">
-        <v>596819.31195772</v>
+        <v>595844.7206979987</v>
       </c>
       <c r="H6" t="n">
-        <v>596819.3119577202</v>
+        <v>595844.7206979985</v>
       </c>
       <c r="I6" t="n">
-        <v>596819.3119577202</v>
+        <v>595844.7206979988</v>
       </c>
       <c r="J6" t="n">
-        <v>420396.0927651274</v>
+        <v>419421.5015054058</v>
       </c>
       <c r="K6" t="n">
-        <v>596819.3119577206</v>
+        <v>595844.720697999</v>
       </c>
       <c r="L6" t="n">
-        <v>596819.3119577203</v>
+        <v>595844.7206979988</v>
       </c>
       <c r="M6" t="n">
-        <v>462018.2967238832</v>
+        <v>461043.7054641614</v>
       </c>
       <c r="N6" t="n">
-        <v>596819.3119577203</v>
+        <v>595844.7206979984</v>
       </c>
       <c r="O6" t="n">
-        <v>596819.3119577204</v>
+        <v>595844.7206979987</v>
       </c>
       <c r="P6" t="n">
-        <v>596819.3119577206</v>
+        <v>595844.7206979987</v>
       </c>
     </row>
   </sheetData>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541008</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.926370499018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>172.1286926687059</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>33.65011071556927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>114.5320061785463</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>152.4095271452414</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>285.569002640173</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>44.77564309126772</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>79.24668876554657</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>171.2340993700035</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>112.1478399845311</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
-        <v>133.8841945977168</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>72.67053247541068</v>
+        <v>107.5829646831826</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.205864551390768e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727435</v>
@@ -31536,10 +31536,10 @@
         <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954665</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649101</v>
@@ -31621,13 +31621,13 @@
         <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246923</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701162</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>220.205405775187</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898688</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307157</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262937</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>71.38553859468745</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O12" t="n">
-        <v>481.9867828282169</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>241.8130382709604</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958063</v>
       </c>
       <c r="M21" t="n">
-        <v>660.1896773843232</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>354.1326152325993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>366.1055152450488</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36615,10 +36615,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>385.6919070110654</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>349.2844000699646</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>201.6157249145282</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>269.8956035973792</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37554,7 +37554,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>250.7532875461497</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>534.3608406099578</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>343.3468637082227</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3687199.05395809</v>
+        <v>3692138.316807122</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>234.7473530730056</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>214.1092459873478</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>86.11283245544996</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>171.7498680634315</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>364.9775941702554</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>38.35377012418417</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>18.61320221940577</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>207.0351854764312</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>242.5352016361518</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>20.52965284373263</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>15.57897922163641</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586832</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014439</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>156.5683910710464</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>137.3062439537388</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>213.3219358494684</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>220.4334597379117</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2374,7 +2374,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113168</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>271.7818641996879</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,7 +3009,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>5.562624396424889</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>122.65197883716</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>190.7955476484028</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>73.50096938092078</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1822.041796525165</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="C2" t="n">
-        <v>1453.079279584754</v>
+        <v>1843.218611560565</v>
       </c>
       <c r="D2" t="n">
-        <v>1094.813580978003</v>
+        <v>1484.952912953815</v>
       </c>
       <c r="E2" t="n">
-        <v>709.025328379759</v>
+        <v>1099.164660355571</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>688.1787555659632</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>270.2149474641501</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4375,7 +4375,7 @@
         <v>2212.181128500977</v>
       </c>
       <c r="Y2" t="n">
-        <v>1822.041796525165</v>
+        <v>2212.181128500977</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4424,7 +4424,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>288.8387344486666</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>140.9256408662735</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>554.6442689908469</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>554.6442689908469</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>554.6442689908469</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X4" t="n">
-        <v>554.6442689908469</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.6442689908469</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1272.344242153657</v>
+        <v>1549.547090562791</v>
       </c>
       <c r="C5" t="n">
-        <v>903.3817252132458</v>
+        <v>1180.58457362238</v>
       </c>
       <c r="D5" t="n">
-        <v>903.3817252132458</v>
+        <v>822.3188750156294</v>
       </c>
       <c r="E5" t="n">
-        <v>517.5934726150015</v>
+        <v>436.5306224173851</v>
       </c>
       <c r="F5" t="n">
-        <v>106.6075678253939</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>92.68416376398481</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.483574129469</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.483574129469</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.483574129469</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.344242153657</v>
+        <v>1936.146930626913</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.8558756644251</v>
+        <v>359.1897464970881</v>
       </c>
       <c r="C7" t="n">
-        <v>370.8558756644251</v>
+        <v>359.1897464970881</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644251</v>
+        <v>209.0731070847524</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>209.0731070847524</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>209.0731070847524</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4758,19 +4758,19 @@
         <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>370.8558756644251</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>370.8558756644251</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>370.8558756644251</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X7" t="n">
-        <v>370.8558756644251</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.8558756644251</v>
+        <v>359.1897464970881</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1074.547708327362</v>
+        <v>2079.343073798763</v>
       </c>
       <c r="C8" t="n">
-        <v>705.5851913869503</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292212</v>
+        <v>1352.114858251601</v>
       </c>
       <c r="E8" t="n">
-        <v>74.811886630977</v>
+        <v>966.3266056533569</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>555.3407008637494</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036442</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018221</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990284</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628375</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628375</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.752638628375</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X8" t="n">
-        <v>1851.286880367295</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="Y8" t="n">
-        <v>1461.147548391484</v>
+        <v>2465.942913862885</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064341</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785272</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661915</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837983</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>114.273120785888</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,28 +5020,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155903</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514088</v>
@@ -5050,10 +5050,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5068,7 +5068,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>167.8887746690264</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>316.9584588710865</v>
+        <v>287.7778528277037</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775507</v>
+        <v>534.5429807341679</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653856</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834045</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2536.440602918914</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.223678370532</v>
+        <v>881.753191430675</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028587</v>
@@ -5208,7 +5208,7 @@
         <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471197</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1340.766380587149</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V13" t="n">
-        <v>1086.081892381262</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W13" t="n">
-        <v>796.6647223443018</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="X13" t="n">
-        <v>796.6647223443018</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="Y13" t="n">
-        <v>575.8721432007717</v>
+        <v>881.753191430675</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5305,19 +5305,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5360,13 +5360,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5439,10 +5439,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706323</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336716</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>994.3109288932102</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028587</v>
@@ -5709,16 +5709,16 @@
         <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336716</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>563.4221461351941</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822459</v>
@@ -5752,13 +5752,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5937,19 +5937,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028587</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,13 +5989,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011339</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1296.555866665167</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1966.019627967826</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6174,22 +6174,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6417,16 +6417,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>800.6837097077201</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6451,10 +6451,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,13 +6463,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
@@ -6545,25 +6545,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6648,13 +6648,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
         <v>614.6238123952637</v>
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6937,19 +6937,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7016,13 +7016,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
         <v>1247.466478653857</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1375.025382843599</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1151.239967633105</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>862.1113288466635</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>607.4268406407766</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7153,34 +7153,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7256,13 +7256,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>339.7502131046251</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>953.6472828615138</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1722.015429253975</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
         <v>2051.878056918008</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7830,25 +7830,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8072,10 +8072,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747218</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>29.47535963978068</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229562</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445211</v>
+        <v>34.7842838544521</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N15" t="n">
-        <v>423.337678916511</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978191</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>159.0121003135241</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9886,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>283.6093329825491</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,16 +10904,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>52.49733361305235</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>129.6689613275309</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>81.27840939835596</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>73.20106248712264</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>66.08953859867927</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>14.45548819888944</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>75.26883114644322</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>61.34209567542524</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>124.4198406026825</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778549</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778548</v>
-      </c>
-      <c r="C2" t="n">
-        <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278753</v>
       </c>
       <c r="F2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="G2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="H2" t="n">
         <v>703852.307527876</v>
-      </c>
-      <c r="G2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="H2" t="n">
-        <v>703852.3075278759</v>
       </c>
       <c r="I2" t="n">
         <v>703852.3075278761</v>
       </c>
       <c r="J2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="K2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="L2" t="n">
         <v>703852.307527876</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.3075278763</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.3075278761</v>
       </c>
       <c r="M2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="N2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="O2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="P2" t="n">
         <v>703852.3075278758</v>
-      </c>
-      <c r="O2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="P2" t="n">
-        <v>703852.307527876</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26441,7 +26441,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-90664.32265132168</v>
       </c>
       <c r="C6" t="n">
-        <v>499303.5565632225</v>
+        <v>499303.5565632229</v>
       </c>
       <c r="D6" t="n">
         <v>499303.5565632227</v>
       </c>
       <c r="E6" t="n">
-        <v>70684.68422110142</v>
+        <v>71561.81635485057</v>
       </c>
       <c r="F6" t="n">
-        <v>595844.7206979989</v>
+        <v>596721.8528317487</v>
       </c>
       <c r="G6" t="n">
-        <v>595844.7206979987</v>
+        <v>596721.852831748</v>
       </c>
       <c r="H6" t="n">
-        <v>595844.7206979985</v>
+        <v>596721.8528317482</v>
       </c>
       <c r="I6" t="n">
-        <v>595844.7206979988</v>
+        <v>596721.8528317483</v>
       </c>
       <c r="J6" t="n">
-        <v>419421.5015054058</v>
+        <v>420298.6336391551</v>
       </c>
       <c r="K6" t="n">
-        <v>595844.720697999</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="L6" t="n">
-        <v>595844.7206979988</v>
+        <v>596721.8528317482</v>
       </c>
       <c r="M6" t="n">
-        <v>461043.7054641614</v>
+        <v>461920.8375979108</v>
       </c>
       <c r="N6" t="n">
-        <v>595844.7206979984</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="O6" t="n">
-        <v>595844.7206979987</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="P6" t="n">
-        <v>595844.7206979987</v>
+        <v>596721.852831748</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541009</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
@@ -26764,10 +26764,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>172.1286926687059</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>109.8135267770094</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>59.30821556748128</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>114.5320061785463</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>41.89845157145601</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>285.569002640173</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>148.6966000396451</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853701</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>79.24668876554657</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>112.1478399845311</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>393.2545171770624</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,22 +28019,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>130.8549834249328</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831826</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-8.541002388099138e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-7.292318332115339e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31521,40 +31521,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J11" t="n">
         <v>283.3273112961206</v>
@@ -31773,16 +31773,16 @@
         <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927189</v>
+        <v>595.647069592719</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540889</v>
+        <v>562.452637254089</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946996</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446479</v>
@@ -31794,7 +31794,7 @@
         <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354895</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127069</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622985</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358987</v>
@@ -31858,19 +31858,19 @@
         <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458552</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095119</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361495</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680332</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298633</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822384</v>
@@ -31934,7 +31934,7 @@
         <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065634</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469074</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336903</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892249</v>
+        <v>6.39802836989225</v>
       </c>
       <c r="U13" t="n">
         <v>0.0816769579135182</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32010,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32031,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32159,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32171,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530451</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35421,19 +35421,19 @@
         <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081123</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951476</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109127</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349825</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.38553859468745</v>
+        <v>41.9101789549068</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879394</v>
+        <v>150.5754385879395</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560246</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004665</v>
+        <v>720.1247453734228</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980132</v>
+        <v>812.5369477415668</v>
       </c>
       <c r="O12" t="n">
-        <v>676.226021517838</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315249</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507424</v>
+        <v>88.01303278507427</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556559</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299107</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187485</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35658,19 +35658,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879393</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N15" t="n">
-        <v>756.532252314524</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958063</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36451,10 +36451,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>366.1055152450488</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36606,7 +36606,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37393,7 +37393,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>594.0337100330154</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415665</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37624,16 +37624,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>203.0727722009916</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
